--- a/Investigating Epochs 1-17.xlsx
+++ b/Investigating Epochs 1-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ema36\OneDrive\Documents\LiMN Things\fNIRSandGerbils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0353E7-DA76-4298-9D5A-E1B8B51F46C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA35FE8-F6EB-4DBF-B803-9F76929B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="1000" xr2:uid="{A7D2DAB4-CAA2-4B26-AF15-BFC9AE48971B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="1000" activeTab="1" xr2:uid="{A7D2DAB4-CAA2-4B26-AF15-BFC9AE48971B}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
@@ -321,19 +321,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31518AC8-F637-425F-A205-E3DA5D5947EC}">
   <dimension ref="A1:Z120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,7 +701,6 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6"/>
       <c r="H2" t="s">
         <v>7</v>
       </c>
@@ -945,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FB7CC1-7485-4E79-AAB3-8FAEE5FEA147}">
   <dimension ref="A1:T146"/>
   <sheetViews>
-    <sheetView topLeftCell="B99" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -991,10 +987,10 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2">
         <v>2303</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2">
         <v>253</v>
       </c>
       <c r="K2" s="3" t="s">
@@ -1969,10 +1965,10 @@
       <c r="C23" t="s">
         <v>0</v>
       </c>
-      <c r="E23" s="6">
-        <v>44031</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23">
+        <v>44031</v>
+      </c>
+      <c r="F23">
         <v>124339.75</v>
       </c>
       <c r="G23" t="s">
@@ -2016,10 +2012,10 @@
       <c r="C24" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="6">
-        <v>35327</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="E24">
+        <v>35327</v>
+      </c>
+      <c r="F24">
         <v>129820.25</v>
       </c>
       <c r="G24" t="s">
@@ -2063,10 +2059,10 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="6">
-        <v>18687</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="E25">
+        <v>18687</v>
+      </c>
+      <c r="F25">
         <v>134753.875</v>
       </c>
       <c r="G25" t="s">
@@ -2110,10 +2106,10 @@
       <c r="C26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="6">
-        <v>11007</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="E26">
+        <v>11007</v>
+      </c>
+      <c r="F26">
         <v>139735</v>
       </c>
       <c r="G26" t="s">
@@ -2157,10 +2153,10 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="6">
-        <v>44031</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="E27">
+        <v>44031</v>
+      </c>
+      <c r="F27">
         <v>144751.875</v>
       </c>
       <c r="G27" t="s">
@@ -2486,10 +2482,10 @@
       <c r="C34" t="s">
         <v>0</v>
       </c>
-      <c r="E34" s="6">
-        <v>44031</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34">
+        <v>44031</v>
+      </c>
+      <c r="F34">
         <v>179893.375</v>
       </c>
       <c r="G34" t="s">
@@ -2683,10 +2679,10 @@
       <c r="G38" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J38" s="9">
+      <c r="I38" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J38" s="8">
         <v>197177.125</v>
       </c>
       <c r="K38" t="s">
@@ -2730,10 +2726,10 @@
       <c r="G39" t="s">
         <v>1</v>
       </c>
-      <c r="I39" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J39" s="9">
+      <c r="I39" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J39" s="8">
         <v>203418.5</v>
       </c>
       <c r="K39" t="s">
@@ -2777,10 +2773,10 @@
       <c r="G40" t="s">
         <v>3</v>
       </c>
-      <c r="I40" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J40" s="9">
+      <c r="I40" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J40" s="8">
         <v>208696.875</v>
       </c>
       <c r="K40" t="s">
@@ -2824,10 +2820,10 @@
       <c r="G41" t="s">
         <v>2</v>
       </c>
-      <c r="I41" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J41" s="9">
+      <c r="I41" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J41" s="8">
         <v>213927.625</v>
       </c>
       <c r="K41" t="s">
@@ -2871,10 +2867,10 @@
       <c r="G42" t="s">
         <v>1</v>
       </c>
-      <c r="I42" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="I42" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J42" s="8">
         <v>219241.625</v>
       </c>
       <c r="K42" t="s">
@@ -2909,19 +2905,19 @@
       <c r="C43" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="6">
-        <v>44031</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="E43">
+        <v>44031</v>
+      </c>
+      <c r="F43">
         <v>226697.375</v>
       </c>
       <c r="G43" t="s">
         <v>0</v>
       </c>
-      <c r="I43" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J43" s="9">
+      <c r="I43" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J43" s="8">
         <v>225542.375</v>
       </c>
       <c r="K43" t="s">
@@ -2965,10 +2961,10 @@
       <c r="G44" t="s">
         <v>2</v>
       </c>
-      <c r="I44" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J44" s="9">
+      <c r="I44" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J44" s="8">
         <v>230797</v>
       </c>
       <c r="K44" t="s">
@@ -3012,10 +3008,10 @@
       <c r="G45" t="s">
         <v>3</v>
       </c>
-      <c r="I45" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J45" s="9">
+      <c r="I45" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J45" s="8">
         <v>236325</v>
       </c>
       <c r="K45" t="s">
@@ -3059,10 +3055,10 @@
       <c r="G46" t="s">
         <v>1</v>
       </c>
-      <c r="I46" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J46" s="9">
+      <c r="I46" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J46" s="8">
         <v>241781.75</v>
       </c>
       <c r="K46" t="s">
@@ -3106,10 +3102,10 @@
       <c r="G47" t="s">
         <v>2</v>
       </c>
-      <c r="I47" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J47" s="9">
+      <c r="I47" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J47" s="8">
         <v>247214.625</v>
       </c>
       <c r="K47" t="s">
@@ -3153,10 +3149,10 @@
       <c r="G48" t="s">
         <v>0</v>
       </c>
-      <c r="I48" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J48" s="9">
+      <c r="I48" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J48" s="8">
         <v>253111.25</v>
       </c>
       <c r="K48" t="s">
@@ -3200,10 +3196,10 @@
       <c r="G49" t="s">
         <v>3</v>
       </c>
-      <c r="I49" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J49" s="9">
+      <c r="I49" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J49" s="8">
         <v>258449</v>
       </c>
       <c r="K49" t="s">
@@ -3247,10 +3243,10 @@
       <c r="G50" t="s">
         <v>1</v>
       </c>
-      <c r="I50" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J50" s="9">
+      <c r="I50" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J50" s="8">
         <v>264309.875</v>
       </c>
       <c r="K50" t="s">
@@ -3294,10 +3290,10 @@
       <c r="G51" t="s">
         <v>0</v>
       </c>
-      <c r="I51" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J51" s="9">
+      <c r="I51" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J51" s="8">
         <v>269956.75</v>
       </c>
       <c r="K51" t="s">
@@ -3341,10 +3337,10 @@
       <c r="G52" t="s">
         <v>2</v>
       </c>
-      <c r="I52" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J52" s="9">
+      <c r="I52" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J52" s="8">
         <v>275009.25</v>
       </c>
       <c r="K52" t="s">
@@ -3388,10 +3384,10 @@
       <c r="G53" t="s">
         <v>3</v>
       </c>
-      <c r="I53" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J53" s="9">
+      <c r="I53" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J53" s="8">
         <v>280109.375</v>
       </c>
       <c r="K53" t="s">
@@ -3435,10 +3431,10 @@
       <c r="G54" t="s">
         <v>2</v>
       </c>
-      <c r="I54" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="I54" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J54" s="8">
         <v>285363.875</v>
       </c>
       <c r="K54" t="s">
@@ -3482,10 +3478,10 @@
       <c r="G55" t="s">
         <v>3</v>
       </c>
-      <c r="I55" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="I55" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J55" s="8">
         <v>290903.875</v>
       </c>
       <c r="K55" t="s">
@@ -3529,10 +3525,10 @@
       <c r="G56" t="s">
         <v>0</v>
       </c>
-      <c r="I56" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="I56" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J56" s="8">
         <v>296194.125</v>
       </c>
       <c r="K56" t="s">
@@ -3576,10 +3572,10 @@
       <c r="G57" t="s">
         <v>1</v>
       </c>
-      <c r="I57" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="I57" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J57" s="8">
         <v>301698.375</v>
       </c>
       <c r="K57" t="s">
@@ -3623,10 +3619,10 @@
       <c r="G58" t="s">
         <v>0</v>
       </c>
-      <c r="I58" s="9">
-        <v>11007</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="I58" s="8">
+        <v>11007</v>
+      </c>
+      <c r="J58" s="8">
         <v>307048</v>
       </c>
       <c r="K58" t="s">
@@ -3670,10 +3666,10 @@
       <c r="G59" t="s">
         <v>3</v>
       </c>
-      <c r="I59" s="9">
-        <v>44031</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="I59" s="8">
+        <v>44031</v>
+      </c>
+      <c r="J59" s="8">
         <v>314097.75</v>
       </c>
       <c r="K59" t="s">
@@ -3717,10 +3713,10 @@
       <c r="G60" t="s">
         <v>2</v>
       </c>
-      <c r="I60" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J60" s="9">
+      <c r="I60" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J60" s="8">
         <v>319043.25</v>
       </c>
       <c r="K60" t="s">
@@ -3764,10 +3760,10 @@
       <c r="G61" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="9">
-        <v>18687</v>
-      </c>
-      <c r="J61" s="9">
+      <c r="I61" s="8">
+        <v>18687</v>
+      </c>
+      <c r="J61" s="8">
         <v>323976.875</v>
       </c>
       <c r="K61" t="s">
@@ -3811,10 +3807,10 @@
       <c r="G62" t="s">
         <v>2</v>
       </c>
-      <c r="I62" s="9">
-        <v>35327</v>
-      </c>
-      <c r="J62" s="9">
+      <c r="I62" s="8">
+        <v>35327</v>
+      </c>
+      <c r="J62" s="8">
         <v>329302.75</v>
       </c>
       <c r="K62" t="s">
@@ -3858,10 +3854,10 @@
       <c r="G63" t="s">
         <v>0</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I63" s="7">
         <v>43263</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J63" s="7">
         <v>335199.25</v>
       </c>
       <c r="K63" t="s">
@@ -4666,10 +4662,10 @@
       <c r="K80" t="s">
         <v>0</v>
       </c>
-      <c r="M80" s="11">
-        <v>44031</v>
-      </c>
-      <c r="N80" s="11">
+      <c r="M80" s="1">
+        <v>44031</v>
+      </c>
+      <c r="N80" s="1">
         <v>443681.375</v>
       </c>
       <c r="O80" t="s">
@@ -5315,13 +5311,13 @@
       <c r="G94" t="s">
         <v>3</v>
       </c>
-      <c r="I94" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J94" s="6">
+      <c r="I94">
+        <v>44031</v>
+      </c>
+      <c r="J94">
         <v>499506.375</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" t="s">
         <v>0</v>
       </c>
       <c r="M94">
@@ -5362,10 +5358,10 @@
       <c r="G95" t="s">
         <v>0</v>
       </c>
-      <c r="I95" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J95" s="6">
+      <c r="I95">
+        <v>18687</v>
+      </c>
+      <c r="J95">
         <v>504665.75</v>
       </c>
       <c r="K95" t="s">
@@ -5409,10 +5405,10 @@
       <c r="G96" t="s">
         <v>1</v>
       </c>
-      <c r="I96" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J96" s="6">
+      <c r="I96">
+        <v>44031</v>
+      </c>
+      <c r="J96">
         <v>510312.75</v>
       </c>
       <c r="K96" t="s">
@@ -5456,10 +5452,10 @@
       <c r="G97" t="s">
         <v>2</v>
       </c>
-      <c r="I97" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J97" s="6">
+      <c r="I97">
+        <v>11007</v>
+      </c>
+      <c r="J97">
         <v>516078.5</v>
       </c>
       <c r="K97" t="s">
@@ -5503,10 +5499,10 @@
       <c r="G98" t="s">
         <v>1</v>
       </c>
-      <c r="I98" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J98" s="6">
+      <c r="I98">
+        <v>35327</v>
+      </c>
+      <c r="J98">
         <v>522165.25</v>
       </c>
       <c r="K98" t="s">
@@ -5550,10 +5546,10 @@
       <c r="G99" t="s">
         <v>3</v>
       </c>
-      <c r="I99" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J99" s="6">
+      <c r="I99">
+        <v>44031</v>
+      </c>
+      <c r="J99">
         <v>527170.125</v>
       </c>
       <c r="K99" t="s">
@@ -5597,10 +5593,10 @@
       <c r="G100" t="s">
         <v>2</v>
       </c>
-      <c r="I100" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J100" s="6">
+      <c r="I100">
+        <v>35327</v>
+      </c>
+      <c r="J100">
         <v>533720.625</v>
       </c>
       <c r="K100" t="s">
@@ -5644,10 +5640,10 @@
       <c r="G101" t="s">
         <v>0</v>
       </c>
-      <c r="I101" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J101" s="6">
+      <c r="I101">
+        <v>11007</v>
+      </c>
+      <c r="J101">
         <v>538903.875</v>
       </c>
       <c r="K101" t="s">
@@ -5682,19 +5678,19 @@
       <c r="C102" t="s">
         <v>0</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <v>35071</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="6">
         <v>544659.5</v>
       </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
-      <c r="I102" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J102" s="6">
+      <c r="I102">
+        <v>18687</v>
+      </c>
+      <c r="J102">
         <v>544336.75</v>
       </c>
       <c r="K102" t="s">
@@ -5738,10 +5734,10 @@
       <c r="G103" t="s">
         <v>1</v>
       </c>
-      <c r="I103" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J103" s="6">
+      <c r="I103">
+        <v>44031</v>
+      </c>
+      <c r="J103">
         <v>549686.5</v>
       </c>
       <c r="K103" t="s">
@@ -5785,10 +5781,10 @@
       <c r="G104" t="s">
         <v>2</v>
       </c>
-      <c r="I104" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J104" s="6">
+      <c r="I104">
+        <v>35327</v>
+      </c>
+      <c r="J104">
         <v>556450.875</v>
       </c>
       <c r="K104" t="s">
@@ -5832,10 +5828,10 @@
       <c r="G105" t="s">
         <v>0</v>
       </c>
-      <c r="I105" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J105" s="6">
+      <c r="I105">
+        <v>18687</v>
+      </c>
+      <c r="J105">
         <v>561634.125</v>
       </c>
       <c r="K105" t="s">
@@ -5870,19 +5866,19 @@
       <c r="C106" t="s">
         <v>0</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="6">
         <v>35071</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="6">
         <v>566343.5</v>
       </c>
       <c r="G106" t="s">
         <v>3</v>
       </c>
-      <c r="I106" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J106" s="6">
+      <c r="I106">
+        <v>11007</v>
+      </c>
+      <c r="J106">
         <v>566674.75</v>
       </c>
       <c r="K106" t="s">
@@ -5926,10 +5922,10 @@
       <c r="G107" t="s">
         <v>2</v>
       </c>
-      <c r="I107" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J107" s="6">
+      <c r="I107">
+        <v>44031</v>
+      </c>
+      <c r="J107">
         <v>571917.375</v>
       </c>
       <c r="K107" t="s">
@@ -5973,10 +5969,10 @@
       <c r="G108" t="s">
         <v>0</v>
       </c>
-      <c r="I108" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J108" s="6">
+      <c r="I108">
+        <v>11007</v>
+      </c>
+      <c r="J108">
         <v>578836.375</v>
       </c>
       <c r="K108" t="s">
@@ -6020,10 +6016,10 @@
       <c r="G109" t="s">
         <v>1</v>
       </c>
-      <c r="I109" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J109" s="6">
+      <c r="I109">
+        <v>18687</v>
+      </c>
+      <c r="J109">
         <v>584102.875</v>
       </c>
       <c r="K109" t="s">
@@ -6067,10 +6063,10 @@
       <c r="G110" t="s">
         <v>2</v>
       </c>
-      <c r="I110" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J110" s="6">
+      <c r="I110">
+        <v>35327</v>
+      </c>
+      <c r="J110">
         <v>589416.875</v>
       </c>
       <c r="K110" t="s">
@@ -6114,10 +6110,10 @@
       <c r="G111" t="s">
         <v>3</v>
       </c>
-      <c r="I111" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J111" s="6">
+      <c r="I111">
+        <v>11007</v>
+      </c>
+      <c r="J111">
         <v>594754.625</v>
       </c>
       <c r="K111" t="s">
@@ -6161,10 +6157,10 @@
       <c r="G112" t="s">
         <v>1</v>
       </c>
-      <c r="I112" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J112" s="6">
+      <c r="I112">
+        <v>18687</v>
+      </c>
+      <c r="J112">
         <v>600258.875</v>
       </c>
       <c r="K112" t="s">
@@ -6208,10 +6204,10 @@
       <c r="G113" t="s">
         <v>0</v>
       </c>
-      <c r="I113" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J113" s="6">
+      <c r="I113">
+        <v>44031</v>
+      </c>
+      <c r="J113">
         <v>605442.125</v>
       </c>
       <c r="K113" t="s">
@@ -6255,10 +6251,10 @@
       <c r="G114" t="s">
         <v>3</v>
       </c>
-      <c r="I114" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J114" s="6">
+      <c r="I114">
+        <v>35327</v>
+      </c>
+      <c r="J114">
         <v>611208</v>
       </c>
       <c r="K114" t="s">
@@ -6302,10 +6298,10 @@
       <c r="G115" t="s">
         <v>2</v>
       </c>
-      <c r="I115" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J115" s="6">
+      <c r="I115">
+        <v>11007</v>
+      </c>
+      <c r="J115">
         <v>616545.75</v>
       </c>
       <c r="K115" t="s">
@@ -6349,10 +6345,10 @@
       <c r="G116" t="s">
         <v>0</v>
       </c>
-      <c r="I116" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J116" s="6">
+      <c r="I116">
+        <v>18687</v>
+      </c>
+      <c r="J116">
         <v>622264</v>
       </c>
       <c r="K116" t="s">
@@ -6387,10 +6383,10 @@
       <c r="G117" t="s">
         <v>1</v>
       </c>
-      <c r="I117" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J117" s="6">
+      <c r="I117">
+        <v>44031</v>
+      </c>
+      <c r="J117">
         <v>627637.5</v>
       </c>
       <c r="K117" t="s">
@@ -6425,10 +6421,10 @@
       <c r="G118" t="s">
         <v>3</v>
       </c>
-      <c r="I118" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J118" s="6">
+      <c r="I118">
+        <v>35327</v>
+      </c>
+      <c r="J118">
         <v>632880.125</v>
       </c>
       <c r="K118" t="s">
@@ -6463,10 +6459,10 @@
       <c r="G119" t="s">
         <v>2</v>
       </c>
-      <c r="I119" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J119" s="6">
+      <c r="I119">
+        <v>44031</v>
+      </c>
+      <c r="J119">
         <v>637992.125</v>
       </c>
       <c r="K119" t="s">
@@ -6501,19 +6497,19 @@
       <c r="G120" t="s">
         <v>1</v>
       </c>
-      <c r="I120" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J120" s="6">
+      <c r="I120">
+        <v>18687</v>
+      </c>
+      <c r="J120">
         <v>643163.5</v>
       </c>
       <c r="K120" t="s">
         <v>1</v>
       </c>
-      <c r="R120" s="8">
+      <c r="R120" s="7">
         <v>43775</v>
       </c>
-      <c r="S120" s="8">
+      <c r="S120" s="7">
         <v>647661</v>
       </c>
       <c r="T120" t="s">
@@ -6539,19 +6535,19 @@
       <c r="G121" t="s">
         <v>0</v>
       </c>
-      <c r="I121" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J121" s="6">
+      <c r="I121">
+        <v>35327</v>
+      </c>
+      <c r="J121">
         <v>648394.25</v>
       </c>
       <c r="K121" t="s">
         <v>3</v>
       </c>
-      <c r="R121" s="8">
+      <c r="R121" s="7">
         <v>2559</v>
       </c>
-      <c r="S121" s="8">
+      <c r="S121" s="7">
         <v>649110.25</v>
       </c>
       <c r="T121" t="s">
@@ -6577,10 +6573,10 @@
       <c r="G122" t="s">
         <v>2</v>
       </c>
-      <c r="I122" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J122" s="6">
+      <c r="I122">
+        <v>11007</v>
+      </c>
+      <c r="J122">
         <v>653732.125</v>
       </c>
       <c r="K122" t="s">
@@ -6615,10 +6611,10 @@
       <c r="G123" t="s">
         <v>0</v>
       </c>
-      <c r="I123" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J123" s="6">
+      <c r="I123">
+        <v>44031</v>
+      </c>
+      <c r="J123">
         <v>658974.75</v>
       </c>
       <c r="K123" t="s">
@@ -6653,10 +6649,10 @@
       <c r="G124" t="s">
         <v>3</v>
       </c>
-      <c r="I124" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J124" s="6">
+      <c r="I124">
+        <v>35327</v>
+      </c>
+      <c r="J124">
         <v>664229.375</v>
       </c>
       <c r="K124" t="s">
@@ -6691,10 +6687,10 @@
       <c r="G125" t="s">
         <v>1</v>
       </c>
-      <c r="I125" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J125" s="6">
+      <c r="I125">
+        <v>18687</v>
+      </c>
+      <c r="J125">
         <v>669222.5</v>
       </c>
       <c r="K125" t="s">
@@ -6729,10 +6725,10 @@
       <c r="G126" t="s">
         <v>2</v>
       </c>
-      <c r="I126" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J126" s="6">
+      <c r="I126">
+        <v>11007</v>
+      </c>
+      <c r="J126">
         <v>674263</v>
       </c>
       <c r="K126" t="s">
@@ -6767,10 +6763,10 @@
       <c r="G127" t="s">
         <v>0</v>
       </c>
-      <c r="I127" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J127" s="6">
+      <c r="I127">
+        <v>35327</v>
+      </c>
+      <c r="J127">
         <v>679731.625</v>
       </c>
       <c r="K127" t="s">
@@ -6805,10 +6801,10 @@
       <c r="G128" t="s">
         <v>1</v>
       </c>
-      <c r="I128" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J128" s="6">
+      <c r="I128">
+        <v>18687</v>
+      </c>
+      <c r="J128">
         <v>685010</v>
       </c>
       <c r="K128" t="s">
@@ -6843,10 +6839,10 @@
       <c r="G129" t="s">
         <v>3</v>
       </c>
-      <c r="I129" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J129" s="6">
+      <c r="I129">
+        <v>44031</v>
+      </c>
+      <c r="J129">
         <v>690217</v>
       </c>
       <c r="K129" t="s">
@@ -6881,10 +6877,10 @@
       <c r="G130" t="s">
         <v>2</v>
       </c>
-      <c r="I130" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J130" s="6">
+      <c r="I130">
+        <v>11007</v>
+      </c>
+      <c r="J130">
         <v>695673.75</v>
       </c>
       <c r="K130" t="s">
@@ -6919,10 +6915,10 @@
       <c r="G131" t="s">
         <v>1</v>
       </c>
-      <c r="I131" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J131" s="6">
+      <c r="I131">
+        <v>35327</v>
+      </c>
+      <c r="J131">
         <v>700476.5</v>
       </c>
       <c r="K131" t="s">
@@ -6957,10 +6953,10 @@
       <c r="G132" t="s">
         <v>0</v>
       </c>
-      <c r="I132" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J132" s="6">
+      <c r="I132">
+        <v>18687</v>
+      </c>
+      <c r="J132">
         <v>705743</v>
       </c>
       <c r="K132" t="s">
@@ -6995,10 +6991,10 @@
       <c r="G133" t="s">
         <v>3</v>
       </c>
-      <c r="I133" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J133" s="6">
+      <c r="I133">
+        <v>11007</v>
+      </c>
+      <c r="J133">
         <v>710926.25</v>
       </c>
       <c r="K133" t="s">
@@ -7033,10 +7029,10 @@
       <c r="G134" t="s">
         <v>0</v>
       </c>
-      <c r="I134" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J134" s="6">
+      <c r="I134">
+        <v>44031</v>
+      </c>
+      <c r="J134">
         <v>716180.875</v>
       </c>
       <c r="K134" t="s">
@@ -7071,10 +7067,10 @@
       <c r="G135" t="s">
         <v>3</v>
       </c>
-      <c r="I135" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J135" s="6">
+      <c r="I135">
+        <v>35327</v>
+      </c>
+      <c r="J135">
         <v>721934.75</v>
       </c>
       <c r="K135" t="s">
@@ -7109,10 +7105,10 @@
       <c r="G136" t="s">
         <v>2</v>
       </c>
-      <c r="I136" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J136" s="6">
+      <c r="I136">
+        <v>18687</v>
+      </c>
+      <c r="J136">
         <v>727510.375</v>
       </c>
       <c r="K136" t="s">
@@ -7147,10 +7143,10 @@
       <c r="G137" t="s">
         <v>1</v>
       </c>
-      <c r="I137" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J137" s="6">
+      <c r="I137">
+        <v>11007</v>
+      </c>
+      <c r="J137">
         <v>732479.625</v>
       </c>
       <c r="K137" t="s">
@@ -7185,10 +7181,10 @@
       <c r="G138" t="s">
         <v>3</v>
       </c>
-      <c r="I138" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J138" s="6">
+      <c r="I138">
+        <v>44031</v>
+      </c>
+      <c r="J138">
         <v>737686.625</v>
       </c>
       <c r="K138" t="s">
@@ -7223,10 +7219,10 @@
       <c r="G139" t="s">
         <v>2</v>
       </c>
-      <c r="I139" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J139" s="6">
+      <c r="I139">
+        <v>11007</v>
+      </c>
+      <c r="J139">
         <v>742608.375</v>
       </c>
       <c r="K139" t="s">
@@ -7261,10 +7257,10 @@
       <c r="G140" t="s">
         <v>1</v>
       </c>
-      <c r="I140" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J140" s="6">
+      <c r="I140">
+        <v>35327</v>
+      </c>
+      <c r="J140">
         <v>747791.625</v>
       </c>
       <c r="K140" t="s">
@@ -7299,10 +7295,10 @@
       <c r="G141" t="s">
         <v>0</v>
       </c>
-      <c r="I141" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J141" s="6">
+      <c r="I141">
+        <v>44031</v>
+      </c>
+      <c r="J141">
         <v>753188.875</v>
       </c>
       <c r="K141" t="s">
@@ -7337,10 +7333,10 @@
       <c r="G142" t="s">
         <v>2</v>
       </c>
-      <c r="I142" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J142" s="6">
+      <c r="I142">
+        <v>18687</v>
+      </c>
+      <c r="J142">
         <v>758479.125</v>
       </c>
       <c r="K142" t="s">
@@ -7375,10 +7371,10 @@
       <c r="G143" t="s">
         <v>3</v>
       </c>
-      <c r="I143" s="6">
-        <v>44031</v>
-      </c>
-      <c r="J143" s="6">
+      <c r="I143">
+        <v>44031</v>
+      </c>
+      <c r="J143">
         <v>763733.75</v>
       </c>
       <c r="K143" t="s">
@@ -7407,10 +7403,10 @@
       <c r="G144" t="s">
         <v>0</v>
       </c>
-      <c r="I144" s="6">
-        <v>35327</v>
-      </c>
-      <c r="J144" s="6">
+      <c r="I144">
+        <v>35327</v>
+      </c>
+      <c r="J144">
         <v>769309.375</v>
       </c>
       <c r="K144" t="s">
@@ -7439,10 +7435,10 @@
       <c r="G145" t="s">
         <v>1</v>
       </c>
-      <c r="I145" s="6">
-        <v>11007</v>
-      </c>
-      <c r="J145" s="6">
+      <c r="I145">
+        <v>11007</v>
+      </c>
+      <c r="J145">
         <v>775253.375</v>
       </c>
       <c r="K145" t="s">
@@ -7459,10 +7455,10 @@
       </c>
     </row>
     <row r="146" spans="3:20" x14ac:dyDescent="0.35">
-      <c r="I146" s="6">
-        <v>18687</v>
-      </c>
-      <c r="J146" s="6">
+      <c r="I146">
+        <v>18687</v>
+      </c>
+      <c r="J146">
         <v>780484.25</v>
       </c>
       <c r="K146" t="s">

--- a/Investigating Epochs 1-17.xlsx
+++ b/Investigating Epochs 1-17.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ema36\OneDrive\Documents\LiMN Things\fNIRSandGerbils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA35FE8-F6EB-4DBF-B803-9F76929B0A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49ECBBDE-DD1E-4B52-883F-4920C3E89908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="1000" activeTab="1" xr2:uid="{A7D2DAB4-CAA2-4B26-AF15-BFC9AE48971B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="1000" activeTab="2" xr2:uid="{A7D2DAB4-CAA2-4B26-AF15-BFC9AE48971B}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis" sheetId="1" r:id="rId1"/>
-    <sheet name="urevent data" sheetId="2" r:id="rId2"/>
+    <sheet name="untouched urevent data" sheetId="3" r:id="rId2"/>
+    <sheet name="urevent data" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="64">
   <si>
     <t>scrambled_diff_talker</t>
   </si>
@@ -237,12 +238,18 @@
   <si>
     <t>** all triggers are misaligned at some point</t>
   </si>
+  <si>
+    <t>too close triggers = 2</t>
+  </si>
+  <si>
+    <t>too close triggers = 12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +267,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -321,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -331,6 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,7 +685,7 @@
   <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,10 +930,32 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J17" s="3"/>
       <c r="L17" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <v>7006</v>
+      </c>
+      <c r="C21" s="9">
+        <v>7007</v>
+      </c>
+      <c r="E21" s="9">
+        <v>7008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="5:26" x14ac:dyDescent="0.35">
@@ -938,11 +977,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724343E4-3F5C-4BBD-B578-A14E5DB6DF07}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FB7CC1-7485-4E79-AAB3-8FAEE5FEA147}">
   <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
